--- a/Sistema/Tabelas Criação.xlsx
+++ b/Sistema/Tabelas Criação.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\Gartok V5\Sistema\Refatorando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Desktop\TerraDeGartok\Sistema\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DA8D00-9DD7-44FF-B9A5-2846E3519A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF90588-FFC5-48A5-A072-DD931DF38B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raças&amp;Ocupações" sheetId="1" r:id="rId1"/>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -1038,7 +1038,7 @@
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
   </cols>
@@ -2276,7 +2276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AE37A7-314B-45F2-BF76-0B80113B7842}">
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
